--- a/data/trans_bre/P54_A_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_2_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -609,12 +609,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,25</t>
+          <t>15,27</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,5</t>
+          <t>11,29</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -624,12 +624,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>24,48%</t>
+          <t>23,28%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,89%</t>
+          <t>14,56%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 13,84</t>
+          <t>-0,28; 13,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,2; 27,25</t>
+          <t>5,34; 25,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,37; 19,76</t>
+          <t>3,29; 19,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 205,44</t>
+          <t>-2,46; 201,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,56; 46,18</t>
+          <t>7,52; 43,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,25; 27,77</t>
+          <t>3,92; 28,03</t>
         </is>
       </c>
     </row>
@@ -684,27 +684,27 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,81</t>
+          <t>-4,82</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,12</t>
+          <t>3,81</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-24,11%</t>
+          <t>-24,14%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,44; 4,5</t>
+          <t>-15,87; 5,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 15,59</t>
+          <t>-6,79; 14,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 12,29</t>
+          <t>-3,93; 12,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-59,25; 36,13</t>
+          <t>-57,19; 48,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 24,79</t>
+          <t>-8,76; 23,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 17,19</t>
+          <t>-4,83; 17,16</t>
         </is>
       </c>
     </row>
@@ -764,22 +764,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,73</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,77</t>
+          <t>6,89</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,9%</t>
+          <t>17,92%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>9,21%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 9,03</t>
+          <t>-3,64; 9,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 12,89</t>
+          <t>-6,06; 10,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 12,76</t>
+          <t>-0,01; 14,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-20,76; 74,24</t>
+          <t>-20,01; 77,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 19,33</t>
+          <t>-7,77; 16,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 17,84</t>
+          <t>0,01; 20,82</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,78</t>
+          <t>9,33</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,52</t>
+          <t>6,53</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,1%</t>
+          <t>13,55%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 12,36</t>
+          <t>-0,85; 12,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,43; 18,01</t>
+          <t>0,91; 16,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,9; 12,67</t>
+          <t>0,71; 13,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 87,18</t>
+          <t>-4,22; 89,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,2; 27,65</t>
+          <t>1,3; 25,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,19; 17,07</t>
+          <t>1,02; 17,77</t>
         </is>
       </c>
     </row>
@@ -929,12 +929,12 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>14,51</t>
+          <t>15,24</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>12,49</t>
+          <t>12,41</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -944,12 +944,12 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>20,42%</t>
+          <t>21,69%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>16,47%</t>
+          <t>16,33%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,96; 13,81</t>
+          <t>1,85; 14,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,13; 22,73</t>
+          <t>7,13; 23,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,0; 19,71</t>
+          <t>5,19; 19,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,62; 204,16</t>
+          <t>14,71; 239,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,52; 35,8</t>
+          <t>10,16; 36,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,41; 28,63</t>
+          <t>6,95; 28,47</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>5,26</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,09</t>
+          <t>5,28</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>15,66%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>6,61%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 11,06</t>
+          <t>-5,23; 10,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 14,14</t>
+          <t>-2,95; 15,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 12,59</t>
+          <t>-1,88; 13,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-22,92; 74,96</t>
+          <t>-23,3; 72,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 20,08</t>
+          <t>-3,51; 23,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 16,96</t>
+          <t>-2,1; 18,0</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,17</t>
+          <t>8,16</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,44</t>
+          <t>7,65</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>24,08%</t>
+          <t>24,05%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>11,51%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>9,89%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,66; 7,22</t>
+          <t>0,57; 6,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,38; 11,74</t>
+          <t>4,38; 11,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,61; 10,53</t>
+          <t>4,67; 10,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,73; 52,86</t>
+          <t>3,58; 51,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,92; 17,09</t>
+          <t>6,08; 17,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,78; 14,02</t>
+          <t>5,88; 14,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P54_A_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_2_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>6,49</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>15,27</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>11,29</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>64,86%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>23,28%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>14,56%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>6.489350129129641</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>15.37216490518466</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>11.23440036063796</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.6486135500404373</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.2279582762822909</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.144391029364996</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-0,28; 13,84</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>5,34; 25,67</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>3,29; 19,93</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-2,46; 201,71</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>7,52; 43,61</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>3,92; 28,03</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.280079116491471</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>4.950586418114714</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>3.496572982721832</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.02461101437029057</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0.06771151550653898</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.04285667673338279</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>13.83775466223653</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>26.03961019666253</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>19.63897319944825</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>2.017099431603548</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.4434430985835655</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.2725630936788968</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-4,82</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,81</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,39</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-24,14%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>5,48%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>5,65%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-15,87; 5,65</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-6,79; 14,36</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,93; 12,44</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-57,19; 48,32</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-8,76; 23,35</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-4,83; 17,16</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-4.816524559976451</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>6.172917068927275</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>5.396638431271128</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.2413529107289498</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.09109215261883856</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.06996676148402885</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,74</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,59</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,89</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>17,92%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>2,17%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>9,21%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-15.87395548925888</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-5.181510321561617</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.877683770806967</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.5719188148834554</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.07020679643225537</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.0342958045931582</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,64; 9,37</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-6,06; 10,95</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,01; 14,34</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-20,01; 77,89</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-7,77; 16,38</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0,01; 20,82</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>5.654083566679924</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>17.99117536767875</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>13.31106238941019</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.483221704702145</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.3021982803422104</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.1848662100002182</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,239 +775,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>5,88</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>9,33</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>6,53</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>35,02%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>13,55%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>8,27%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>2.737423722108076</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.803799310190636</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>6.156608520630757</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.1791894518996409</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.03840323575016388</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.08177741380350469</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,85; 12,19</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,91; 16,29</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,71; 13,07</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-4,22; 89,59</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>1,3; 25,55</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>1,02; 17,77</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.643160709039436</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.587704224925417</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.6807733302498497</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.2001108670579047</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.05799905297978165</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.007958817860287327</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>9.371313211642782</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>14.62254358080562</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>13.84163990425744</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.77892110204998</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.2283954473738184</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.1983300830003958</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>7,7</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>15,24</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>12,41</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>85,98%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>21,69%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>16,33%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>1,85; 14,48</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>7,13; 23,73</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>5,19; 19,87</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>14,71; 239,67</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>10,16; 36,68</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>6,95; 28,47</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>5.880241264957747</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>9.875015064128734</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>6.928869530340265</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.3501802786719268</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.142668337494138</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.08796384757086771</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>2,94</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>5,26</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5,28</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>15,66%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>6,86%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>6,61%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.8515881255225365</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1.824931599140691</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1.009551133753458</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.0421952238388594</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.02495290769871592</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.011458424117382</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-5,23; 10,92</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-2,95; 15,95</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-1,88; 13,11</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-23,3; 72,19</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-3,51; 23,35</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-2,1; 18,0</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>12.19338086422429</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>16.7422041231463</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>13.5814620823417</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.8958623626945525</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.2613701195455342</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.1829946046210905</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1082,77 +939,243 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>3,63</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>8,16</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>7,65</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>24,05%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>11,51%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>9,89%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>7.702536539255019</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>15.00024752460928</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>12.70710214777514</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.8597722057263021</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.2117892757429933</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.1679229500729819</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>0,57; 6,84</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>4,38; 11,91</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>4,67; 10,62</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>3,58; 51,86</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>6,08; 17,59</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>5,88; 14,05</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>1.84545356760075</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>7.199048222593076</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>5.33983931555307</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>0.1470865721543068</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>0.09497463735356687</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>0.06934277674347566</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>14.48006784656536</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>24.71578015909938</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>20.54807044780133</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>2.396733558131524</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0.3852441347830121</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0.2952043160333659</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>2.935486937224727</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>3.600247150315794</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>4.65141666778266</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>0.1566191159236175</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.04602623380656349</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.05783209819928489</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-5.226110250964902</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-5.046840009339943</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-2.598379661841165</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.23303601301431</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.06136728899694494</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.03012124534859867</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>10.91738498235311</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>14.53134030268815</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>12.98386112032978</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.7218760230627225</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0.2056279087951458</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>0.1742887782492257</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>3.634360047232726</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>8.559010078053998</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>7.670997291538484</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.2404723721472929</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.120343135139371</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.09903522541772136</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>0.5686124593169942</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>4.822623667782788</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>4.454127558640958</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>0.03577215815523004</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>0.06561282097436973</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>0.05658462330055076</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>6.840208206742941</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>12.79258683402869</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>10.58046264294838</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.5186217025439904</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.1879346774639852</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.1408707042535295</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1161,15 +1184,15 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
